--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1074.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1074.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7955324627188856</v>
+        <v>1.205438613891602</v>
       </c>
       <c r="B1">
-        <v>2.026161669133216</v>
+        <v>2.617996692657471</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.310005817192224</v>
+        <v>2.171185970306396</v>
       </c>
       <c r="E1">
-        <v>1.44801851300705</v>
+        <v>1.167295694351196</v>
       </c>
     </row>
   </sheetData>
